--- a/datasheet/data.xlsx
+++ b/datasheet/data.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Msi\Desktop\class_4\EE464\proje\datasheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levovo20x\Documents\GitHub\EE464-Emine-BOOSTanci\datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45804AA1-D377-4153-8BB8-65AE1651A055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -379,29 +378,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="38" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
     <col min="12" max="12" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -430,7 +430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6</v>
       </c>
@@ -491,7 +491,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6</v>
       </c>
@@ -522,7 +522,7 @@
         <v>45.801526717557252</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
@@ -553,7 +553,7 @@
         <v>44.444444444444443</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>30</v>
       </c>
@@ -584,7 +584,7 @@
         <v>64.935064935064929</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>30</v>
       </c>
@@ -615,7 +615,7 @@
         <v>63.559322033898304</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>30</v>
       </c>
@@ -646,7 +646,7 @@
         <v>60.606060606060609</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>45</v>
       </c>
@@ -677,7 +677,7 @@
         <v>58.441558441558442</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>45</v>
       </c>
@@ -708,7 +708,7 @@
         <v>64.748201438848923</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>45</v>
       </c>
@@ -739,7 +739,7 @@
         <v>59.602649006622521</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>60</v>
       </c>
@@ -756,7 +756,7 @@
         <v>99</v>
       </c>
       <c r="F12">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G12">
         <v>70</v>
@@ -770,7 +770,7 @@
         <v>60.606060606060609</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>60</v>
       </c>
@@ -787,7 +787,7 @@
         <v>95.1</v>
       </c>
       <c r="F13">
-        <v>67.2</v>
+        <v>95</v>
       </c>
       <c r="G13">
         <v>57</v>
@@ -801,7 +801,7 @@
         <v>63.091482649842277</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>60</v>
       </c>
@@ -818,7 +818,7 @@
         <v>92.3</v>
       </c>
       <c r="F14">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="G14">
         <v>55</v>
@@ -827,12 +827,13 @@
         <f t="shared" si="0"/>
         <v>2.4000000000000057</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>65.005417118093177</v>
+      <c r="I14" t="b">
+        <f>F1=A14/E14*100</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>